--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Clcf1-Cntfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Clcf1-Cntfr.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.798783666666666</v>
+        <v>0.06373566666666666</v>
       </c>
       <c r="H2">
-        <v>5.396350999999999</v>
+        <v>0.191207</v>
       </c>
       <c r="I2">
-        <v>0.2319744053785674</v>
+        <v>0.01058875298517695</v>
       </c>
       <c r="J2">
-        <v>0.2319744053785674</v>
+        <v>0.01058875298517695</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.02507166666666667</v>
+        <v>0.04154133333333333</v>
       </c>
       <c r="N2">
-        <v>0.075215</v>
+        <v>0.124624</v>
       </c>
       <c r="O2">
-        <v>0.001520672841173258</v>
+        <v>0.002517093804502335</v>
       </c>
       <c r="P2">
-        <v>0.001520672841173258</v>
+        <v>0.002517093804502335</v>
       </c>
       <c r="Q2">
-        <v>0.04509850449611111</v>
+        <v>0.002647664574222222</v>
       </c>
       <c r="R2">
-        <v>0.4058865404649999</v>
+        <v>0.023828981168</v>
       </c>
       <c r="S2">
-        <v>0.0003527571781065032</v>
+        <v>2.665288453639451E-05</v>
       </c>
       <c r="T2">
-        <v>0.0003527571781065032</v>
+        <v>2.665288453639451E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.798783666666666</v>
+        <v>0.06373566666666666</v>
       </c>
       <c r="H3">
-        <v>5.396350999999999</v>
+        <v>0.191207</v>
       </c>
       <c r="I3">
-        <v>0.2319744053785674</v>
+        <v>0.01058875298517695</v>
       </c>
       <c r="J3">
-        <v>0.2319744053785674</v>
+        <v>0.01058875298517695</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>40.267417</v>
       </c>
       <c r="O3">
-        <v>0.8141137727328104</v>
+        <v>0.8133013372545576</v>
       </c>
       <c r="P3">
-        <v>0.8141137727328106</v>
+        <v>0.8133013372545578</v>
       </c>
       <c r="Q3">
-        <v>24.14412399948522</v>
+        <v>0.8554902224798888</v>
       </c>
       <c r="R3">
-        <v>217.297115995367</v>
+        <v>7.699412002319</v>
       </c>
       <c r="S3">
-        <v>0.1888535583401958</v>
+        <v>0.008611846962702605</v>
       </c>
       <c r="T3">
-        <v>0.1888535583401959</v>
+        <v>0.008611846962702606</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.798783666666666</v>
+        <v>0.06373566666666666</v>
       </c>
       <c r="H4">
-        <v>5.396350999999999</v>
+        <v>0.191207</v>
       </c>
       <c r="I4">
-        <v>0.2319744053785674</v>
+        <v>0.01058875298517695</v>
       </c>
       <c r="J4">
-        <v>0.2319744053785674</v>
+        <v>0.01058875298517695</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>9.119026</v>
       </c>
       <c r="O4">
-        <v>0.1843655544260162</v>
+        <v>0.18418156894094</v>
       </c>
       <c r="P4">
-        <v>0.1843655544260162</v>
+        <v>0.18418156894094</v>
       </c>
       <c r="Q4">
-        <v>5.467718341569554</v>
+        <v>0.1937357338202222</v>
       </c>
       <c r="R4">
-        <v>49.20946507412599</v>
+        <v>1.743621604382</v>
       </c>
       <c r="S4">
-        <v>0.04276808986026501</v>
+        <v>0.001950253137937953</v>
       </c>
       <c r="T4">
-        <v>0.04276808986026501</v>
+        <v>0.001950253137937953</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>5.348101</v>
       </c>
       <c r="I5">
-        <v>0.2299002695301921</v>
+        <v>0.2961697031425515</v>
       </c>
       <c r="J5">
-        <v>0.2299002695301921</v>
+        <v>0.2961697031425515</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,28 +738,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.02507166666666667</v>
+        <v>0.04154133333333333</v>
       </c>
       <c r="N5">
-        <v>0.075215</v>
+        <v>0.124624</v>
       </c>
       <c r="O5">
-        <v>0.001520672841173258</v>
+        <v>0.002517093804502335</v>
       </c>
       <c r="P5">
-        <v>0.001520672841173258</v>
+        <v>0.002517093804502335</v>
       </c>
       <c r="Q5">
-        <v>0.04469526852388889</v>
+        <v>0.07405574878044445</v>
       </c>
       <c r="R5">
-        <v>0.402257416715</v>
+        <v>0.666501739024</v>
       </c>
       <c r="S5">
-        <v>0.000349603096052975</v>
+        <v>0.0007454869248614121</v>
       </c>
       <c r="T5">
-        <v>0.000349603096052975</v>
+        <v>0.0007454869248614121</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>5.348101</v>
       </c>
       <c r="I6">
-        <v>0.2299002695301921</v>
+        <v>0.2961697031425515</v>
       </c>
       <c r="J6">
-        <v>0.2299002695301921</v>
+        <v>0.2961697031425515</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>40.267417</v>
       </c>
       <c r="O6">
-        <v>0.8141137727328104</v>
+        <v>0.8133013372545576</v>
       </c>
       <c r="P6">
-        <v>0.8141137727328106</v>
+        <v>0.8133013372545578</v>
       </c>
       <c r="Q6">
         <v>23.92824590279078</v>
@@ -818,10 +818,10 @@
         <v>215.354213125117</v>
       </c>
       <c r="S6">
-        <v>0.1871649757795147</v>
+        <v>0.2408752156201225</v>
       </c>
       <c r="T6">
-        <v>0.1871649757795147</v>
+        <v>0.2408752156201226</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>5.348101</v>
       </c>
       <c r="I7">
-        <v>0.2299002695301921</v>
+        <v>0.2961697031425515</v>
       </c>
       <c r="J7">
-        <v>0.2299002695301921</v>
+        <v>0.2961697031425515</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>9.119026</v>
       </c>
       <c r="O7">
-        <v>0.1843655544260162</v>
+        <v>0.18418156894094</v>
       </c>
       <c r="P7">
-        <v>0.1843655544260162</v>
+        <v>0.18418156894094</v>
       </c>
       <c r="Q7">
         <v>5.418830229958444</v>
@@ -880,10 +880,10 @@
         <v>48.769472069626</v>
       </c>
       <c r="S7">
-        <v>0.04238569065462443</v>
+        <v>0.05454900059756759</v>
       </c>
       <c r="T7">
-        <v>0.04238569065462443</v>
+        <v>0.05454900059756759</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>12.518248</v>
       </c>
       <c r="I8">
-        <v>0.5381253250912404</v>
+        <v>0.6932415438722715</v>
       </c>
       <c r="J8">
-        <v>0.5381253250912406</v>
+        <v>0.6932415438722715</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -924,28 +924,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.02507166666666667</v>
+        <v>0.04154133333333333</v>
       </c>
       <c r="N8">
-        <v>0.075215</v>
+        <v>0.124624</v>
       </c>
       <c r="O8">
-        <v>0.001520672841173258</v>
+        <v>0.002517093804502335</v>
       </c>
       <c r="P8">
-        <v>0.001520672841173258</v>
+        <v>0.002517093804502335</v>
       </c>
       <c r="Q8">
-        <v>0.1046177803688889</v>
+        <v>0.1733415709724444</v>
       </c>
       <c r="R8">
-        <v>0.94156002332</v>
+        <v>1.560074138752</v>
       </c>
       <c r="S8">
-        <v>0.0008183125670137796</v>
+        <v>0.001744953995104528</v>
       </c>
       <c r="T8">
-        <v>0.0008183125670137799</v>
+        <v>0.001744953995104528</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>12.518248</v>
       </c>
       <c r="I9">
-        <v>0.5381253250912404</v>
+        <v>0.6932415438722715</v>
       </c>
       <c r="J9">
-        <v>0.5381253250912406</v>
+        <v>0.6932415438722715</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>40.267417</v>
       </c>
       <c r="O9">
-        <v>0.8141137727328104</v>
+        <v>0.8133013372545576</v>
       </c>
       <c r="P9">
-        <v>0.8141137727328106</v>
+        <v>0.8133013372545578</v>
       </c>
       <c r="Q9">
         <v>56.00861248060178</v>
@@ -1004,10 +1004,10 @@
         <v>504.077512325416</v>
       </c>
       <c r="S9">
-        <v>0.4380952386130998</v>
+        <v>0.5638142746717325</v>
       </c>
       <c r="T9">
-        <v>0.4380952386131</v>
+        <v>0.5638142746717326</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>12.518248</v>
       </c>
       <c r="I10">
-        <v>0.5381253250912404</v>
+        <v>0.6932415438722715</v>
       </c>
       <c r="J10">
-        <v>0.5381253250912406</v>
+        <v>0.6932415438722715</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>9.119026</v>
       </c>
       <c r="O10">
-        <v>0.1843655544260162</v>
+        <v>0.18418156894094</v>
       </c>
       <c r="P10">
-        <v>0.1843655544260162</v>
+        <v>0.18418156894094</v>
       </c>
       <c r="Q10">
         <v>12.68380322071644</v>
@@ -1066,10 +1066,10 @@
         <v>114.154228986448</v>
       </c>
       <c r="S10">
-        <v>0.09921177391112675</v>
+        <v>0.1276823152054344</v>
       </c>
       <c r="T10">
-        <v>0.09921177391112677</v>
+        <v>0.1276823152054345</v>
       </c>
     </row>
   </sheetData>
